--- a/biology/Zoologie/Callicore_cyclops/Callicore_cyclops.xlsx
+++ b/biology/Zoologie/Callicore_cyclops/Callicore_cyclops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore cyclops est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callicore cyclops a été décrit par Otto Staudinger en 1891 sous le nom initial de Catagramma cyclops[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore cyclops a été décrit par Otto Staudinger en 1891 sous le nom initial de Catagramma cyclops.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,46 +581,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Callicore_cyclops</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_cyclops</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Callicore cyclops est présent au Brésil[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore cyclops est présent au Brésil.
 Sur les autres projets Wikimedia :
 Callicore cyclops, sur Wikimedia CommonsCallicore cyclops, sur Wikispecies
-Biotope
-Protection</t>
+</t>
         </is>
       </c>
     </row>
